--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_19_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_19_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_0</t>
+          <t>model_19_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9992976945902621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9987169024240916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9990537023105441</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9993361815137395</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9992374210415716</v>
       </c>
       <c r="G2" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0006555712723457703</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001197715265636175</v>
       </c>
       <c r="I2" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0008227493199864309</v>
       </c>
       <c r="J2" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.000941394591815568</v>
       </c>
       <c r="K2" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.0008820719559009994</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.002973796382833203</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02560412608049277</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001296563833362</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02669414673558709</v>
       </c>
       <c r="P2" t="n">
-        <v>93.17694283759242</v>
+        <v>88.66000706185868</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.2753483577158</v>
+        <v>133.7584125819821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_22</t>
+          <t>model_19_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9992835284735914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9987058758114503</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9990340724140749</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9993227908813958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9992218348551324</v>
       </c>
       <c r="G3" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0006687947204372375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001208008124524552</v>
       </c>
       <c r="I3" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0008398163425010184</v>
       </c>
       <c r="J3" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.0009603845252541853</v>
       </c>
       <c r="K3" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.0009001004338776018</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003003740345307577</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02586106572508638</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001322716664139</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02696202483278943</v>
       </c>
       <c r="P3" t="n">
-        <v>93.17694283759242</v>
+        <v>88.62006678061604</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.2753483577158</v>
+        <v>133.7184723007394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_21</t>
+          <t>model_19_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9992690902744625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9986946800490661</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9990140368275451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9993092124820709</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9992059918353862</v>
       </c>
       <c r="G4" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.000682272145560302</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001218458877273021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0008572360882920672</v>
       </c>
       <c r="J4" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.0009796407405515942</v>
       </c>
       <c r="K4" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.0009184259898879475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003033969200994667</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02612033969075253</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001349371800992</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02723233662794509</v>
       </c>
       <c r="P4" t="n">
-        <v>93.17694283759242</v>
+        <v>88.58016387861052</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.2753483577158</v>
+        <v>133.6785693987339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_20</t>
+          <t>model_19_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9992543836137502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9986832611933282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9989935796553536</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9992954748044101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9991898712481494</v>
       </c>
       <c r="G5" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0006960001677874212</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001229117877874563</v>
       </c>
       <c r="I5" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0008750223776351297</v>
       </c>
       <c r="J5" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.0009991228365187081</v>
       </c>
       <c r="K5" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.0009370726070769188</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003064498390306193</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02638181509652854</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000135504513678</v>
+        <v>1.00137652255923</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02750494358307369</v>
       </c>
       <c r="P5" t="n">
-        <v>93.17694283759242</v>
+        <v>88.540321313112</v>
       </c>
       <c r="Q5" t="n">
-        <v>138.2753483577158</v>
+        <v>133.6387268332354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_19</t>
+          <t>model_19_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.999239393074694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9986715863865604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9989726788120102</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9992814893865551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999999999994694</v>
+        <v>0.999173446971876</v>
       </c>
       <c r="G6" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0007099931779877862</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001240015797527502</v>
       </c>
       <c r="I6" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0008931944125449394</v>
       </c>
       <c r="J6" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001018956265393312</v>
       </c>
       <c r="K6" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.000956070500129865</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003095303354256647</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02664569717586287</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001404197400565</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02778005966883649</v>
       </c>
       <c r="P6" t="n">
-        <v>93.17694283759242</v>
+        <v>88.50051039288596</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.2753483577158</v>
+        <v>133.5989159130094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_18</t>
+          <t>model_19_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9992241236384317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9986596730435853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9989513303462617</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9992672891572829</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9991567144161128</v>
       </c>
       <c r="G7" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0007242465264878399</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001251136380259432</v>
       </c>
       <c r="I7" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0009117556284002285</v>
       </c>
       <c r="J7" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001039094329210679</v>
       </c>
       <c r="K7" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.0009754249788054539</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003126386883239584</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02691182874662812</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001432387129049</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02805752101153752</v>
       </c>
       <c r="P7" t="n">
-        <v>93.17694283759242</v>
+        <v>88.46075743467793</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.2753483577158</v>
+        <v>133.5591629548013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_17</t>
+          <t>model_19_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.999208572361741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9986475447261876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9989295357588168</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9992529211554511</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9991397224528374</v>
       </c>
       <c r="G8" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.000738762960656539</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001262457632178593</v>
       </c>
       <c r="I8" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.000930704720424351</v>
       </c>
       <c r="J8" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.0010594703197859</v>
       </c>
       <c r="K8" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.0009950795130870826</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003157738921295777</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02718019427186898</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001461097178324</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.0283373114127811</v>
       </c>
       <c r="P8" t="n">
-        <v>93.17694283759242</v>
+        <v>88.42106689072388</v>
       </c>
       <c r="Q8" t="n">
-        <v>138.2753483577158</v>
+        <v>133.5194724108473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_16</t>
+          <t>model_19_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9991927413071447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9986351480617069</v>
       </c>
       <c r="D9" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9989073058171645</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9992383041316842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9991224003711789</v>
       </c>
       <c r="G9" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0007535405552190452</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001274029374320562</v>
       </c>
       <c r="I9" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0009500323269287511</v>
       </c>
       <c r="J9" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001080199460970343</v>
       </c>
       <c r="K9" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001015115893949547</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.00318937167886259</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02745069316463694</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001490323740656</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02861932600342409</v>
       </c>
       <c r="P9" t="n">
-        <v>93.17694283759242</v>
+        <v>88.38145543778431</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.2753483577158</v>
+        <v>133.4798609579077</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_15</t>
+          <t>model_19_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9991766122746095</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9986225524130879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9988846100093703</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9992235189520785</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9991048070431828</v>
       </c>
       <c r="G10" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0007685962991080155</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.00128578685942134</v>
       </c>
       <c r="I10" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0009697649762178619</v>
       </c>
       <c r="J10" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001101167072460485</v>
       </c>
       <c r="K10" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001035466024339174</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003221292496966393</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02772356937892406</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001520100416105</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02890381912308505</v>
       </c>
       <c r="P10" t="n">
-        <v>93.17694283759242</v>
+        <v>88.34188938990619</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.2753483577158</v>
+        <v>133.4402949100296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_14</t>
+          <t>model_19_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.999160168920147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9986097006979058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.99999999999884</v>
+        <v>0.998861383109357</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9992085009228137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9990868669655927</v>
       </c>
       <c r="G11" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0007839454487189648</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001297783371418746</v>
       </c>
       <c r="I11" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.0009899593784702099</v>
       </c>
       <c r="J11" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.00112246489983683</v>
       </c>
       <c r="K11" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001056217238563013</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003253528611249728</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02799902585303576</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000135504513678</v>
+        <v>1.00155045737819</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.0291910023495732</v>
       </c>
       <c r="P11" t="n">
-        <v>93.17694283759242</v>
+        <v>88.30234224150064</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.2753483577158</v>
+        <v>133.4007477616241</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_13</t>
+          <t>model_19_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9991434430793603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9985966422543754</v>
       </c>
       <c r="D12" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9988376456029966</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9991933640507314</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9990686754058385</v>
       </c>
       <c r="G12" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0007995582869137915</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001309972855254943</v>
       </c>
       <c r="I12" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001010597722443653</v>
       </c>
       <c r="J12" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001143931264227326</v>
       </c>
       <c r="K12" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001077259341175304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003286011682170793</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02827646171135617</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001581335853489</v>
       </c>
       <c r="O12" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02948024922675371</v>
       </c>
       <c r="P12" t="n">
-        <v>93.17694283759242</v>
+        <v>88.26290224828055</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.2753483577158</v>
+        <v>133.361307768404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_23</t>
+          <t>model_19_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9991263890413723</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9985832740329849</v>
       </c>
       <c r="D13" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9988134228269502</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9991779523803291</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9990501196942484</v>
       </c>
       <c r="G13" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0008154774827898344</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001322451503125898</v>
       </c>
       <c r="I13" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001031657979424515</v>
       </c>
       <c r="J13" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001165787334023277</v>
       </c>
       <c r="K13" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001098722656723896</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003318823018824734</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02855656636904784</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001612820231313</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.02977227851961989</v>
       </c>
       <c r="P13" t="n">
-        <v>93.17694283759242</v>
+        <v>88.2234734956471</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.2753483577158</v>
+        <v>133.3218790157705</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9991090009827165</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9985696199525095</v>
       </c>
       <c r="D14" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9987886954607899</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9991622824572169</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9990312204836095</v>
       </c>
       <c r="G14" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.00083170847229745</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001335196987904813</v>
       </c>
       <c r="I14" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.00105315694737101</v>
       </c>
       <c r="J14" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001188009645057577</v>
       </c>
       <c r="K14" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001120583296214294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003351973960686426</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02883935630865311</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001644921262677</v>
       </c>
       <c r="O14" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03006710741241003</v>
       </c>
       <c r="P14" t="n">
-        <v>93.17694283759242</v>
+        <v>88.1840571448372</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.2753483577158</v>
+        <v>133.2824626649606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_10</t>
+          <t>model_19_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9990912813626237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9985556861145609</v>
       </c>
       <c r="D15" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9987634251137577</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9991463955119151</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9990119841663957</v>
       </c>
       <c r="G15" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0008482489598526698</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001348203614004987</v>
       </c>
       <c r="I15" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001075128004754159</v>
       </c>
       <c r="J15" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.00121053972624264</v>
       </c>
       <c r="K15" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001142833865498399</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003385436141524916</v>
       </c>
       <c r="M15" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02912471390164494</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001677634407464</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03036461326890717</v>
       </c>
       <c r="P15" t="n">
-        <v>93.17694283759242</v>
+        <v>88.14467276105603</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.2753483577158</v>
+        <v>133.2430782811794</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_9</t>
+          <t>model_19_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9990732382973089</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9985414975940605</v>
       </c>
       <c r="D16" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9987375663577863</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9991303379561075</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9989924221206047</v>
       </c>
       <c r="G16" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0008650913693250295</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001361447975088075</v>
       </c>
       <c r="I16" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001097610648565027</v>
       </c>
       <c r="J16" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001233311758820692</v>
       </c>
       <c r="K16" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001165461203692859</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003419189818530003</v>
       </c>
       <c r="M16" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02941243562381445</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001710944681891</v>
       </c>
       <c r="O16" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03066458390045551</v>
       </c>
       <c r="P16" t="n">
-        <v>93.17694283759242</v>
+        <v>88.10535085466657</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.2753483577158</v>
+        <v>133.20375637479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_8</t>
+          <t>model_19_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9990548362304459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9985270150299962</v>
       </c>
       <c r="D17" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9987110767133563</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9991140226362842</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9989724649545284</v>
       </c>
       <c r="G17" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0008822688909842776</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001374966812931007</v>
       </c>
       <c r="I17" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001120641812208693</v>
       </c>
       <c r="J17" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001256449339595158</v>
       </c>
       <c r="K17" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001188545575901925</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003453285873252217</v>
       </c>
       <c r="M17" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.02970301148005498</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001744917728408</v>
       </c>
       <c r="O17" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03096753017247114</v>
       </c>
       <c r="P17" t="n">
-        <v>93.17694283759242</v>
+        <v>88.0660273667157</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.2753483577158</v>
+        <v>133.1644328868391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_7</t>
+          <t>model_19_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9990361088404808</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.998512226886777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9986841006126645</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9990974705546007</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9989521798247064</v>
       </c>
       <c r="G18" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0008997500874792026</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001388770895501722</v>
       </c>
       <c r="I18" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001144095920516658</v>
       </c>
       <c r="J18" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001279922684346238</v>
       </c>
       <c r="K18" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001212009302431448</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003487674644430308</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.0299958345021305</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000135504513678</v>
+        <v>1.00177949137142</v>
       </c>
       <c r="O18" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03127281927682364</v>
       </c>
       <c r="P18" t="n">
-        <v>93.17694283759242</v>
+        <v>88.02678702755803</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.2753483577158</v>
+        <v>133.1251925476815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_6</t>
+          <t>model_19_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9990169907552966</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9984970961363228</v>
       </c>
       <c r="D19" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9986564489166853</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9990806136558952</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9989314539281304</v>
       </c>
       <c r="G19" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0009175959808117312</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001402894786887567</v>
       </c>
       <c r="I19" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001168137418574695</v>
       </c>
       <c r="J19" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001303828305543322</v>
       </c>
       <c r="K19" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001235982862059009</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003522438372665244</v>
       </c>
       <c r="M19" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.03029184677123089</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001814786297914</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03158143340104951</v>
       </c>
       <c r="P19" t="n">
-        <v>93.17694283759242</v>
+        <v>87.98750674453596</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.2753483577158</v>
+        <v>133.0859122646594</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_5</t>
+          <t>model_19_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9989975158999641</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9984816548329628</v>
       </c>
       <c r="D20" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9986282349623683</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9990635448396622</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9989103868091935</v>
       </c>
       <c r="G20" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0009357749034172982</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001417308565779186</v>
       </c>
       <c r="I20" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001192667766674539</v>
       </c>
       <c r="J20" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001328034457711417</v>
       </c>
       <c r="K20" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001260351112192978</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003557547136315668</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.0305904381043701</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001850739876989</v>
       </c>
       <c r="O20" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03189273638540972</v>
       </c>
       <c r="P20" t="n">
-        <v>93.17694283759242</v>
+        <v>87.94827119642109</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.2753483577158</v>
+        <v>133.0466767165445</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_4</t>
+          <t>model_19_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9989776612226549</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9984658978691939</v>
       </c>
       <c r="D21" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9985993653254582</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9990461774048406</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9988888902070259</v>
       </c>
       <c r="G21" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0009543083731658068</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001432016999806606</v>
       </c>
       <c r="I21" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001217768191626124</v>
       </c>
       <c r="J21" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001352664096013408</v>
       </c>
       <c r="K21" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001285216143819766</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003592986212007804</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.03089188199455978</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001887394665868</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03220701336607966</v>
       </c>
       <c r="P21" t="n">
-        <v>93.17694283759242</v>
+        <v>87.90904739287072</v>
       </c>
       <c r="Q21" t="n">
-        <v>138.2753483577158</v>
+        <v>133.0074529129942</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_3</t>
+          <t>model_19_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9989573747727022</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9984497412527488</v>
       </c>
       <c r="D22" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9985697500299795</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9990284741751165</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9988669075162793</v>
       </c>
       <c r="G22" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.0009732448837243585</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001447098492064658</v>
       </c>
       <c r="I22" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001243516922165976</v>
       </c>
       <c r="J22" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001377769942061376</v>
       </c>
       <c r="K22" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001310643432113676</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003628859059660633</v>
       </c>
       <c r="M22" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.03119687297990551</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001924846573473</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03252498844908993</v>
       </c>
       <c r="P22" t="n">
-        <v>93.17694283759242</v>
+        <v>87.86974965677037</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.2753483577158</v>
+        <v>132.9681551768938</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_2</t>
+          <t>model_19_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9989367473939437</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9984332773404617</v>
       </c>
       <c r="D23" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9985395195587231</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9990105620897937</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9988445655922678</v>
       </c>
       <c r="G23" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.000992499636358228</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001462466831502415</v>
       </c>
       <c r="I23" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001269800511301</v>
       </c>
       <c r="J23" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001403171976804587</v>
       </c>
       <c r="K23" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001336486244052794</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003664990777370118</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.03150396223268159</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000135504513678</v>
+        <v>1.001962927888104</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03284515112711907</v>
       </c>
       <c r="P23" t="n">
-        <v>93.17694283759242</v>
+        <v>87.83056782358538</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.2753483577158</v>
+        <v>132.9289733437088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_1</t>
+          <t>model_19_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9989156801594219</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9984164263240463</v>
       </c>
       <c r="D24" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9985085767762117</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9989923029377588</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9988217432027516</v>
       </c>
       <c r="G24" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.00101216497503955</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001478196515652165</v>
       </c>
       <c r="I24" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001296703412526906</v>
       </c>
       <c r="J24" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001429066204417321</v>
       </c>
       <c r="K24" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001362884808472113</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.00370156538864877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.03181454030847453</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000135504513678</v>
+        <v>1.002001821244144</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03316895115458376</v>
       </c>
       <c r="P24" t="n">
-        <v>93.17694283759242</v>
+        <v>87.79132740517841</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.2753483577158</v>
+        <v>132.8897329253018</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_11</t>
+          <t>model_19_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9988941771112638</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9983991728297686</v>
       </c>
       <c r="D25" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9984769177518696</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9989737150965917</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9987984450554158</v>
       </c>
       <c r="G25" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.001032237126620414</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001494301895219427</v>
       </c>
       <c r="I25" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001324229043244456</v>
       </c>
       <c r="J25" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001455426562723627</v>
       </c>
       <c r="K25" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001389833680011505</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003738543111039413</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.03212844731107332</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000135504513678</v>
+        <v>1.002041519179205</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03349622182816026</v>
       </c>
       <c r="P25" t="n">
-        <v>93.17694283759242</v>
+        <v>87.75205372891949</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.2753483577158</v>
+        <v>132.8504592490429</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_24</t>
+          <t>model_19_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999266017217577</v>
+        <v>0.9988723031439045</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9992399568086781</v>
+        <v>0.9983816091630108</v>
       </c>
       <c r="D26" t="n">
-        <v>0.99999999999884</v>
+        <v>0.9984445610516192</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999999838347</v>
+        <v>0.9989549013102997</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999999999994694</v>
+        <v>0.9987747563544189</v>
       </c>
       <c r="G26" t="n">
-        <v>6.851407092713388e-05</v>
+        <v>0.001052655514994088</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007094669570587066</v>
+        <v>0.001510696807182013</v>
       </c>
       <c r="I26" t="n">
-        <v>1.056079012373983e-12</v>
+        <v>0.001352361261493305</v>
       </c>
       <c r="J26" t="n">
-        <v>6.745167539286499e-12</v>
+        <v>0.001482107345246822</v>
       </c>
       <c r="K26" t="n">
-        <v>3.900623275830241e-12</v>
+        <v>0.001417234303370064</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000427347085098107</v>
+        <v>0.003775792151771995</v>
       </c>
       <c r="M26" t="n">
-        <v>0.008277322690769877</v>
+        <v>0.03244465310330946</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000135504513678</v>
+        <v>1.002081901888176</v>
       </c>
       <c r="O26" t="n">
-        <v>0.008629705454136051</v>
+        <v>0.03382588915560811</v>
       </c>
       <c r="P26" t="n">
-        <v>93.17694283759242</v>
+        <v>87.71287849121747</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.2753483577158</v>
+        <v>132.8112840113409</v>
       </c>
     </row>
   </sheetData>
